--- a/data/jornada_13/dataset_jornada_13_todos_los_jugadores_MD_y_S.xlsx
+++ b/data/jornada_13/dataset_jornada_13_todos_los_jugadores_MD_y_S.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE48"/>
+  <dimension ref="A1:BE47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,84 +723,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abde Rebbach</t>
+          <t>Ronald Araújo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>536.000</t>
+          <t>15.156.000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>Alavés</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Loss</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1,76m</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+          <t>1,91m</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>79kg</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Abderrahman Rebbach</t>
+          <t>Ronald Araújo</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>27'</t>
+          <t>90'</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
@@ -809,11 +813,11 @@
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2/2 (100%)</t>
+          <t>79/86 (92%)</t>
         </is>
       </c>
       <c r="AB2" t="n">
@@ -821,16 +825,16 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2 (1)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0 (0)</t>
+          <t>4 (3)</t>
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -839,23 +843,23 @@
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>3 (0)</t>
+          <t>2 (2)</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>1 (0)</t>
+          <t>6 (5)</t>
         </is>
       </c>
       <c r="AL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -864,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
@@ -884,12 +888,10 @@
         <v>0.03</v>
       </c>
       <c r="AU2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="n">
-        <v>0.05</v>
-      </c>
+      <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
@@ -902,12 +904,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ronald Araújo</t>
+          <t>Jules Koundé</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15.156.000</t>
+          <t>13.285.000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -921,16 +923,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -952,38 +954,38 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1,91m</t>
+          <t>1,80m</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>79kg</t>
+          <t>70kg</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Ronald Araújo</t>
+          <t>Jules Koundé</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>90'</t>
+          <t>70'</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
@@ -992,53 +994,53 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>79/86 (92%)</t>
+          <t>68/72 (94%)</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
+          <t>1 (1)</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>2 (1)</t>
+        </is>
+      </c>
+      <c r="AE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>3 (2)</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
           <t>1 (0)</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>4 (3)</t>
-        </is>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>2 (2)</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>6 (5)</t>
-        </is>
-      </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -1061,15 +1063,17 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>2</v>
+      </c>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
@@ -1083,12 +1087,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jules Koundé</t>
+          <t>Íñigo Martínez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13.285.000</t>
+          <t>5.110.000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1102,16 +1106,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1133,38 +1137,38 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1,80m</t>
+          <t>1,81m</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>70kg</t>
+          <t>77kg</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Jules Koundé</t>
+          <t>Iñigo Martínez</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>70'</t>
+          <t>90'</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
@@ -1173,49 +1177,49 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>68/72 (94%)</t>
+          <t>72/86 (84%)</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>1 (1)</t>
+          <t>0 (0)</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
+          <t>6 (3)</t>
+        </is>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
           <t>2 (1)</t>
         </is>
       </c>
-      <c r="AE4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>3 (2)</t>
-        </is>
-      </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>1 (0)</t>
+          <t>10 (4)</t>
         </is>
       </c>
       <c r="AL4" t="n">
@@ -1242,17 +1246,15 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="AU4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>2</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr"/>
@@ -1266,12 +1268,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Íñigo Martínez</t>
+          <t>João Cancelo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5.110.000</t>
+          <t>15.200.000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1294,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1316,34 +1318,34 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>8,5</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1,81m</t>
+          <t>1,82m</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>77kg</t>
+          <t>74kg</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Iñigo Martínez</t>
+          <t>João Cancelo</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1356,31 +1358,31 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>72/86 (84%)</t>
+          <t>72/82 (88%)</t>
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0 (0)</t>
+          <t>6 (1)</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>6 (3)</t>
+          <t>6 (4)</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1389,26 +1391,26 @@
         <v>1</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
+          <t>11 (7)</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
           <t>2 (1)</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>10 (4)</t>
-        </is>
-      </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>0 (0)</t>
+          <t>7 (5)</t>
         </is>
       </c>
       <c r="AR5" t="n">
@@ -1428,13 +1430,15 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
       <c r="AU5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
+      <c r="AW5" t="n">
+        <v>0.02</v>
+      </c>
       <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
@@ -1447,17 +1451,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>João Cancelo</t>
+          <t>İlkay Gündoğan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15.200.000</t>
+          <t>15.547.000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,16 +1470,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -1497,34 +1501,34 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1,82m</t>
+          <t>1,80m</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>74kg</t>
+          <t>80kg</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>João Cancelo</t>
+          <t>İlkay Gündoğan</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1537,59 +1541,59 @@
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>72/82 (88%)</t>
+          <t>116/122 (95%)</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>6 (1)</t>
+          <t>4 (0)</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>6 (4)</t>
+          <t>4 (2)</t>
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>11 (7)</t>
+          <t>8 (5)</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2 (1)</t>
+          <t>0 (0)</t>
         </is>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
         <v>0</v>
@@ -1599,7 +1603,7 @@
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>7 (5)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="AR6" t="n">
@@ -1609,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.18</v>
+        <v>0.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AX6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="n">
+        <v>1</v>
+      </c>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
@@ -1630,12 +1634,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>İlkay Gündoğan</t>
+          <t xml:space="preserve"> Pedri</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15.547.000</t>
+          <t>15.639.000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1649,13 +1653,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>-2</v>
@@ -1680,38 +1684,38 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1,80m</t>
+          <t>1,74m</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>80kg</t>
+          <t>60kg</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>İlkay Gündoğan</t>
+          <t>Pedri</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>90'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="U7" t="inlineStr"/>
@@ -1720,71 +1724,71 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>116/122 (95%)</t>
+          <t>98/109 (90%)</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>4 (0)</t>
+          <t>1 (1)</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
+          <t>0 (0)</t>
+        </is>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
           <t>4 (2)</t>
         </is>
       </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>8 (5)</t>
-        </is>
-      </c>
       <c r="AK7" t="inlineStr">
         <is>
+          <t>1 (0)</t>
+        </is>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
           <t>0 (0)</t>
         </is>
       </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>1 (0)</t>
-        </is>
-      </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
@@ -1792,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AU7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
@@ -1813,17 +1817,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pedri</t>
+          <t>Lamine Yamal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15.639.000</t>
+          <t>10.998.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>DL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1832,16 +1836,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1863,38 +1867,34 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1,74m</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>60kg</t>
-        </is>
-      </c>
+          <t>1,80m</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Pedri</t>
+          <t>Lamine Yamal</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>81'</t>
+          <t>90'</t>
         </is>
       </c>
       <c r="U8" t="inlineStr"/>
@@ -1903,26 +1903,26 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>98/109 (90%)</t>
+          <t>39/45 (87%)</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
+          <t>5 (0)</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
           <t>1 (1)</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
       <c r="AE8" t="n">
         <v>0</v>
       </c>
@@ -1930,32 +1930,32 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>4 (2)</t>
+          <t>9 (4)</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>1 (0)</t>
+          <t>1 (1)</t>
         </is>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>0 (0)</t>
+          <t>2 (0)</t>
         </is>
       </c>
       <c r="AR8" t="n">
@@ -1975,16 +1975,16 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AU8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
@@ -1996,17 +1996,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lamine Yamal</t>
+          <t>Fermín López</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10.998.000</t>
+          <t>5.330.000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DL</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2015,16 +2015,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -2046,34 +2046,34 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1,80m</t>
+          <t>1,76m</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Lamine Yamal</t>
+          <t>Fermín López</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>90'</t>
+          <t>63'</t>
         </is>
       </c>
       <c r="U9" t="inlineStr"/>
@@ -2082,19 +2082,19 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>39/45 (87%)</t>
+          <t>28/30 (93%)</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>5 (0)</t>
+          <t>0 (0)</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>2</v>
@@ -2119,32 +2119,32 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>9 (4)</t>
+          <t>6 (3)</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
+          <t>1 (0)</t>
+        </is>
+      </c>
+      <c r="AL9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
           <t>1 (1)</t>
-        </is>
-      </c>
-      <c r="AL9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>2 (0)</t>
         </is>
       </c>
       <c r="AR9" t="n">
@@ -2157,14 +2157,16 @@
         <v>0.03</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
+      <c r="AY9" t="n">
+        <v>1</v>
+      </c>
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr"/>
@@ -2175,17 +2177,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fermín López</t>
+          <t>João Félix</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5.330.000</t>
+          <t>15.056.000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>DL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2194,16 +2196,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -2225,34 +2227,38 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1,76m</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr"/>
+          <t>1,81m</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>62kg</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Fermín López</t>
+          <t>João Félix</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>63'</t>
+          <t>70'</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
@@ -2261,26 +2267,26 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>28/30 (93%)</t>
+          <t>32/38 (84%)</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
+          <t>4 (0)</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
           <t>0 (0)</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>1 (1)</t>
-        </is>
-      </c>
       <c r="AE10" t="n">
         <v>0</v>
       </c>
@@ -2291,39 +2297,39 @@
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>6 (3)</t>
+          <t>17 (10)</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>1 (0)</t>
+          <t>2 (1)</t>
         </is>
       </c>
       <c r="AL10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1 (1)</t>
+          <t>9 (7)</t>
         </is>
       </c>
       <c r="AR10" t="n">
@@ -2333,19 +2339,17 @@
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="AU10" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr"/>
       <c r="BB10" t="inlineStr"/>
@@ -2356,12 +2360,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>João Félix</t>
+          <t>Robert Lewandowski</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15.056.000</t>
+          <t>21.317.000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2375,16 +2379,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -2406,38 +2410,38 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1,81m</t>
+          <t>1,84m</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>62kg</t>
+          <t>79kg</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>João Félix</t>
+          <t>Robert Lewandowski</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>70'</t>
+          <t>90'</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
@@ -2446,11 +2450,11 @@
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>32/38 (84%)</t>
+          <t>12/15 (80%)</t>
         </is>
       </c>
       <c r="AB11" t="n">
@@ -2458,7 +2462,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>4 (0)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2467,7 +2471,7 @@
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
         <v>0</v>
@@ -2476,43 +2480,43 @@
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>17 (10)</t>
+          <t>4 (1)</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2 (1)</t>
+          <t>4 (1)</t>
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
         <v>3</v>
       </c>
-      <c r="AM11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1</v>
-      </c>
       <c r="AO11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>9 (7)</t>
+          <t>1 (1)</t>
         </is>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
@@ -2521,15 +2525,19 @@
         <v>0.06</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="n">
-        <v>0.11</v>
+        <v>1.24</v>
       </c>
       <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
+      <c r="AY11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>2</v>
+      </c>
       <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr"/>
       <c r="BC11" t="inlineStr"/>
@@ -2539,57 +2547,57 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Robert Lewandowski</t>
+          <t>Antonio Sivera</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.317.000</t>
+          <t>6.016.000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DL</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Alavés</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>15</v>
-      </c>
-      <c r="F12" t="n">
-        <v>16</v>
-      </c>
-      <c r="G12" t="n">
-        <v>12</v>
-      </c>
-      <c r="H12" t="n">
-        <v>16</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Alavés</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2598,7 +2606,7 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -2607,33 +2615,45 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>79kg</t>
+          <t>75kg</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Robert Lewandowski</t>
+          <t>Antonio Sivera</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
           <t>90'</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>1 (1)</t>
+        </is>
+      </c>
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
       <c r="Z12" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>12/15 (80%)</t>
+          <t>13/33 (39%)</t>
         </is>
       </c>
       <c r="AB12" t="n">
@@ -2641,47 +2661,47 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>1 (0)</t>
+          <t>0 (0)</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
+          <t>32 (12)</t>
+        </is>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
           <t>0 (0)</t>
         </is>
       </c>
-      <c r="AE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>4 (1)</t>
-        </is>
-      </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>4 (1)</t>
+          <t>0 (0)</t>
         </is>
       </c>
       <c r="AL12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
         <v>0</v>
@@ -2691,33 +2711,21 @@
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1 (1)</t>
-        </is>
-      </c>
-      <c r="AR12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>10</v>
-      </c>
+          <t>0 (0)</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="n">
-        <v>1.24</v>
-      </c>
+      <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="n">
+        <v>2</v>
+      </c>
       <c r="BB12" t="inlineStr"/>
       <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="inlineStr"/>
@@ -2726,17 +2734,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Antonio Sivera</t>
+          <t>Andoni Gorosabel</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6.016.000</t>
+          <t>3.212.000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2745,13 +2753,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>6</v>
@@ -2776,12 +2784,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -2789,122 +2797,112 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1,84m</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>75kg</t>
-        </is>
-      </c>
+          <t>1,74m</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Antonio Sivera</t>
+          <t>Andoni Gorosabel</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>90'</t>
-        </is>
-      </c>
-      <c r="U13" t="n">
+          <t>85'</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>19/26 (73%)</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>2 (0)</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>3 (0)</t>
+        </is>
+      </c>
+      <c r="AE13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI13" t="n">
         <v>4</v>
       </c>
-      <c r="V13" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>10 (4)</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>1 (0)</t>
+        </is>
+      </c>
+      <c r="AL13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>1 (1)</t>
         </is>
       </c>
-      <c r="Y13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>13/33 (39%)</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>32 (12)</t>
-        </is>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>10</v>
+      </c>
       <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="inlineStr"/>
       <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="n">
-        <v>2</v>
-      </c>
+      <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="inlineStr"/>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
@@ -2913,12 +2911,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Andoni Gorosabel</t>
+          <t>Abdelkabir Abqar</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.212.000</t>
+          <t>1.523.000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2932,7 +2930,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -2941,7 +2939,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -2963,34 +2961,34 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1,74m</t>
+          <t>1,88m</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Andoni Gorosabel</t>
+          <t>Abdelkabir Abqar</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>85'</t>
+          <t>90'</t>
         </is>
       </c>
       <c r="U14" t="inlineStr"/>
@@ -2999,53 +2997,53 @@
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>19/26 (73%)</t>
+          <t>11/15 (73%)</t>
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2 (0)</t>
+          <t>0 (0)</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>3 (0)</t>
+          <t>3 (1)</t>
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>2</v>
       </c>
       <c r="AI14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>10 (4)</t>
+          <t>6 (3)</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>1 (0)</t>
+          <t>2 (2)</t>
         </is>
       </c>
       <c r="AL14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM14" t="n">
         <v>1</v>
@@ -3061,7 +3059,7 @@
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1 (1)</t>
+          <t>0 (0)</t>
         </is>
       </c>
       <c r="AR14" t="n">
@@ -3070,19 +3068,21 @@
       <c r="AS14" t="n">
         <v>0</v>
       </c>
-      <c r="AT14" t="n">
-        <v>0.14</v>
-      </c>
+      <c r="AT14" t="inlineStr"/>
       <c r="AU14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
       <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
+      <c r="AZ14" t="n">
+        <v>1</v>
+      </c>
       <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
+      <c r="BB14" t="n">
+        <v>1</v>
+      </c>
       <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
       <c r="BE14" t="inlineStr"/>
@@ -3090,12 +3090,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Abdelkabir Abqar</t>
+          <t>Rafa Marín</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.523.000</t>
+          <t>360.000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
@@ -3118,7 +3118,7 @@
         <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -3140,26 +3140,26 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1,88m</t>
+          <t>1,90m</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Abdelkabir Abqar</t>
+          <t>Rafa Marín</t>
         </is>
       </c>
       <c r="S15" t="n">
@@ -3176,11 +3176,11 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>11/15 (73%)</t>
+          <t>19/25 (76%)</t>
         </is>
       </c>
       <c r="AB15" t="n">
@@ -3193,39 +3193,39 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>3 (1)</t>
+          <t>8 (3)</t>
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AF15" t="n">
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>6 (3)</t>
+          <t>0 (0)</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>2 (2)</t>
+          <t>2 (1)</t>
         </is>
       </c>
       <c r="AL15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
         <v>0</v>
@@ -3249,19 +3249,15 @@
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AU15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="inlineStr"/>
       <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="n">
-        <v>1</v>
-      </c>
+      <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="n">
-        <v>1</v>
-      </c>
+      <c r="BB15" t="inlineStr"/>
       <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="inlineStr"/>
       <c r="BE15" t="inlineStr"/>
@@ -3269,12 +3265,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rafa Marín</t>
+          <t>Rubén Duarte</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>360.000</t>
+          <t>3.425.000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3291,13 +3287,13 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -3319,30 +3315,34 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>1,90m</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr"/>
+          <t>1,80m</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>75kg</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Rafa Marín</t>
+          <t>Rubén Duarte</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -3355,84 +3355,88 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>19/25 (76%)</t>
+          <t>21/29 (72%)</t>
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
+          <t>2 (0)</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>7 (3)</t>
+        </is>
+      </c>
+      <c r="AE16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>3 (2)</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>2 (0)</t>
+        </is>
+      </c>
+      <c r="AL16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
           <t>0 (0)</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>8 (3)</t>
-        </is>
-      </c>
-      <c r="AE16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>2 (1)</t>
-        </is>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
       <c r="AR16" t="n">
         <v>0</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
       </c>
-      <c r="AT16" t="inlineStr"/>
+      <c r="AT16" t="n">
+        <v>0.01</v>
+      </c>
       <c r="AU16" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
+      <c r="AX16" t="n">
+        <v>1</v>
+      </c>
       <c r="AY16" t="inlineStr"/>
       <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr"/>
@@ -3444,12 +3448,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rubén Duarte</t>
+          <t>David López</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3.425.000</t>
+          <t>12.066.000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3459,34 +3463,18 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Alavés</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="L17" t="b">
@@ -3494,34 +3482,34 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1,80m</t>
+          <t>1,85m</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>75kg</t>
+          <t>81kg</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Rubén Duarte</t>
+          <t>Javi López</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -3534,11 +3522,11 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>21/29 (72%)</t>
+          <t>12/17 (71%)</t>
         </is>
       </c>
       <c r="AB17" t="n">
@@ -3546,16 +3534,16 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2 (0)</t>
+          <t>0 (0)</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>7 (3)</t>
+          <t>4 (1)</t>
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -3564,19 +3552,19 @@
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>3 (2)</t>
+          <t>8 (5)</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2 (0)</t>
+          <t>0 (0)</t>
         </is>
       </c>
       <c r="AL17" t="n">
@@ -3589,30 +3577,32 @@
         <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" t="n">
         <v>0</v>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>0 (0)</t>
+          <t>2 (1)</t>
         </is>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.01</v>
+        <v>0.37</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
+      <c r="AW17" t="n">
+        <v>0.11</v>
+      </c>
       <c r="AX17" t="n">
         <v>1</v>
       </c>
@@ -3627,12 +3617,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>David López</t>
+          <t>Javier López</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12.066.000</t>
+          <t>1.353.000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3642,18 +3632,34 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Girona</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+          <t>Alavés</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="L18" t="b">
@@ -3661,27 +3667,23 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1,85m</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>81kg</t>
-        </is>
-      </c>
+          <t>1,83m</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
           <t>Javi López</t>
@@ -3796,17 +3798,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Javier López</t>
+          <t>Jon Guridi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.353.000</t>
+          <t>5.409.000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3815,13 +3817,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
         <v>6</v>
@@ -3851,29 +3853,33 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1,83m</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr"/>
+          <t>1,79m</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>64kg</t>
+        </is>
+      </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Javi López</t>
+          <t>Jon Guridi</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>90'</t>
+          <t>78'</t>
         </is>
       </c>
       <c r="U19" t="inlineStr"/>
@@ -3882,90 +3888,86 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>12/17 (71%)</t>
+          <t>19/29 (66%)</t>
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>0 (0)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>4 (1)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI19" t="n">
         <v>3</v>
       </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>8 (5)</t>
+          <t>7 (3)</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>0 (0)</t>
+          <t>5 (4)</t>
         </is>
       </c>
       <c r="AL19" t="n">
         <v>1</v>
       </c>
       <c r="AM19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
         <v>0</v>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>2 (1)</t>
+          <t>2 (2)</t>
         </is>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.37</v>
+        <v>0.02</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
       <c r="AY19" t="inlineStr"/>
       <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr"/>
@@ -3977,12 +3979,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jon Guridi</t>
+          <t>Antonio Blanco</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5.409.000</t>
+          <t>1.820.000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3996,16 +3998,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -4027,38 +4029,34 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1,79m</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>64kg</t>
-        </is>
-      </c>
+          <t>1,76m</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Jon Guridi</t>
+          <t>Antonio Blanco</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>78'</t>
+          <t>85'</t>
         </is>
       </c>
       <c r="U20" t="inlineStr"/>
@@ -4067,24 +4065,24 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>19/29 (66%)</t>
+          <t>20/27 (74%)</t>
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>1 (0)</t>
+          <t>0 (0)</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>1 (0)</t>
+          <t>4 (2)</t>
         </is>
       </c>
       <c r="AE20" t="n">
@@ -4094,29 +4092,29 @@
         <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
         <v>3</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>7 (3)</t>
+          <t>9 (3)</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>5 (4)</t>
+          <t>0 (0)</t>
         </is>
       </c>
       <c r="AL20" t="n">
         <v>1</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20" t="n">
         <v>0</v>
@@ -4139,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AU20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
@@ -4158,12 +4156,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Antonio Blanco</t>
+          <t>Ander Guevara</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.820.000</t>
+          <t>5.282.000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4180,11 +4178,11 @@
         <v>3</v>
       </c>
       <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
         <v>6</v>
       </c>
-      <c r="G21" t="n">
-        <v>2</v>
-      </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
@@ -4208,26 +4206,26 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>1,76m</t>
+          <t>1,80m</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Antonio Blanco</t>
+          <t>Ander Guevara</t>
         </is>
       </c>
       <c r="S21" t="n">
@@ -4235,7 +4233,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>85'</t>
+          <t>90'</t>
         </is>
       </c>
       <c r="U21" t="inlineStr"/>
@@ -4244,11 +4242,11 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>20/27 (74%)</t>
+          <t>28/36 (78%)</t>
         </is>
       </c>
       <c r="AB21" t="n">
@@ -4261,32 +4259,32 @@
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>4 (2)</t>
+          <t>2 (0)</t>
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>9 (3)</t>
+          <t>9 (4)</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>0 (0)</t>
+          <t>3 (3)</t>
         </is>
       </c>
       <c r="AL21" t="n">
@@ -4306,7 +4304,7 @@
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>2 (2)</t>
+          <t>3 (1)</t>
         </is>
       </c>
       <c r="AR21" t="n">
@@ -4316,10 +4314,10 @@
         <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AU21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
@@ -4335,12 +4333,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ander Guevara</t>
+          <t>Luis Rioja</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5.282.000</t>
+          <t>9.450.000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4354,13 +4352,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
@@ -4385,7 +4383,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -4394,25 +4392,25 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>1,80m</t>
+          <t>1,73m</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Ander Guevara</t>
+          <t>Luis Rioja</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>90'</t>
+          <t>63'</t>
         </is>
       </c>
       <c r="U22" t="inlineStr"/>
@@ -4421,15 +4419,15 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>28/36 (78%)</t>
+          <t>12/21 (57%)</t>
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4438,7 +4436,7 @@
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>2 (0)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="AE22" t="n">
@@ -4448,26 +4446,26 @@
         <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>9 (4)</t>
+          <t>4 (1)</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>3 (3)</t>
+          <t>2 (1)</t>
         </is>
       </c>
       <c r="AL22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="n">
         <v>1</v>
@@ -4483,7 +4481,7 @@
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>3 (1)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="AR22" t="n">
@@ -4493,10 +4491,10 @@
         <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AU22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
@@ -4512,17 +4510,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Luis Rioja</t>
+          <t>Samu Omorodion</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9.450.000</t>
+          <t>5.517.000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>DL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4531,16 +4529,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -4562,34 +4560,34 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1,73m</t>
+          <t>1,93m</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Luis Rioja</t>
+          <t>Samuel Omorodion</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>63'</t>
+          <t>79'</t>
         </is>
       </c>
       <c r="U23" t="inlineStr"/>
@@ -4598,11 +4596,11 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>12/21 (57%)</t>
+          <t>13/19 (68%)</t>
         </is>
       </c>
       <c r="AB23" t="n">
@@ -4615,32 +4613,32 @@
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>1 (0)</t>
+          <t>0 (0)</t>
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>4 (1)</t>
+          <t>9 (4)</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>2 (1)</t>
+          <t>9 (4)</t>
         </is>
       </c>
       <c r="AL23" t="n">
@@ -4650,51 +4648,55 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP23" t="n">
         <v>0</v>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>1 (0)</t>
+          <t>5 (3)</t>
         </is>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS23" t="n">
         <v>0</v>
       </c>
-      <c r="AT23" t="n">
-        <v>0.04</v>
-      </c>
+      <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV23" t="inlineStr"/>
-      <c r="AW23" t="inlineStr"/>
+      <c r="AW23" t="n">
+        <v>1.47</v>
+      </c>
       <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
+      <c r="AY23" t="n">
+        <v>2</v>
+      </c>
       <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="inlineStr"/>
-      <c r="BC23" t="inlineStr"/>
+      <c r="BC23" t="n">
+        <v>1</v>
+      </c>
       <c r="BD23" t="inlineStr"/>
       <c r="BE23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Samu Omorodion</t>
+          <t xml:space="preserve"> Raphinha</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5.517.000</t>
+          <t>10.164.000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4704,69 +4706,73 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>Alavés</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>9</v>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
-      </c>
-      <c r="G24" t="n">
-        <v>9</v>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Loss</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="L24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>1,93m</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr"/>
+          <t>1,76m</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>68kg</t>
+        </is>
+      </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Samuel Omorodion</t>
+          <t>Raphinha</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>79'</t>
+          <t>27'</t>
         </is>
       </c>
       <c r="U24" t="inlineStr"/>
@@ -4775,24 +4781,24 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>13/19 (68%)</t>
+          <t>14/19 (74%)</t>
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>0 (0)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>0 (0)</t>
+          <t>3 (2)</t>
         </is>
       </c>
       <c r="AE24" t="n">
@@ -4812,75 +4818,73 @@
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>9 (4)</t>
+          <t>2 (1)</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>9 (4)</t>
+          <t>1 (1)</t>
         </is>
       </c>
       <c r="AL24" t="n">
         <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP24" t="n">
         <v>0</v>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>5 (3)</t>
+          <t>2 (1)</t>
         </is>
       </c>
       <c r="AR24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
       </c>
-      <c r="AT24" t="inlineStr"/>
+      <c r="AT24" t="n">
+        <v>0.01</v>
+      </c>
       <c r="AU24" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="n">
-        <v>1.47</v>
+        <v>0.02</v>
       </c>
       <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="n">
-        <v>2</v>
-      </c>
+      <c r="AY24" t="inlineStr"/>
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr"/>
       <c r="BB24" t="inlineStr"/>
-      <c r="BC24" t="n">
-        <v>1</v>
-      </c>
+      <c r="BC24" t="inlineStr"/>
       <c r="BD24" t="inlineStr"/>
       <c r="BE24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Raphinha</t>
+          <t>Alejandro Balde</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10.164.000</t>
+          <t>9.353.000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DL</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4920,38 +4924,34 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>1,76m</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>68kg</t>
-        </is>
-      </c>
+          <t>1,75m</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Raphinha</t>
+          <t>Alejandro Balde</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>27'</t>
+          <t>20'</t>
         </is>
       </c>
       <c r="U25" t="inlineStr"/>
@@ -4960,51 +4960,51 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>14/19 (74%)</t>
+          <t>9/9 (100%)</t>
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
+          <t>0 (0)</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>0 (0)</t>
+        </is>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>0 (0)</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
           <t>1 (0)</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>3 (2)</t>
-        </is>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>2 (1)</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>1 (1)</t>
-        </is>
-      </c>
       <c r="AL25" t="n">
         <v>0</v>
       </c>
@@ -5015,14 +5015,14 @@
         <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" t="n">
         <v>0</v>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>2 (1)</t>
+          <t>0 (0)</t>
         </is>
       </c>
       <c r="AR25" t="n">
@@ -5035,12 +5035,10 @@
         <v>0.01</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AV25" t="inlineStr"/>
-      <c r="AW25" t="n">
-        <v>0.02</v>
-      </c>
+      <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="inlineStr"/>
       <c r="AY25" t="inlineStr"/>
       <c r="AZ25" t="inlineStr"/>
@@ -5053,17 +5051,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Alejandro Balde</t>
+          <t>Ferran Torres</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.353.000</t>
+          <t>7.950.000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>DL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5072,16 +5070,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -5103,30 +5101,34 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>1,75m</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr"/>
+          <t>1,85m</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>77kg</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Alejandro Balde</t>
+          <t>Ferran Torres</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -5139,11 +5141,11 @@
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>9/9 (100%)</t>
+          <t>5/6 (83%)</t>
         </is>
       </c>
       <c r="AB26" t="n">
@@ -5160,7 +5162,7 @@
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
@@ -5172,23 +5174,23 @@
         <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
+          <t>5 (2)</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
           <t>0 (0)</t>
         </is>
       </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>1 (0)</t>
-        </is>
-      </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN26" t="n">
         <v>0</v>
@@ -5210,37 +5212,39 @@
       <c r="AS26" t="n">
         <v>0</v>
       </c>
-      <c r="AT26" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="AT26" t="inlineStr"/>
       <c r="AU26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr"/>
       <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr"/>
+      <c r="AZ26" t="n">
+        <v>1</v>
+      </c>
       <c r="BA26" t="inlineStr"/>
       <c r="BB26" t="inlineStr"/>
       <c r="BC26" t="inlineStr"/>
-      <c r="BD26" t="inlineStr"/>
+      <c r="BD26" t="n">
+        <v>1</v>
+      </c>
       <c r="BE26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ferran Torres</t>
+          <t>Oriol Romeu</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7.950.000</t>
+          <t>4.758.000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DL</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5249,16 +5253,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -5280,38 +5284,38 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>1,85m</t>
+          <t>1,82m</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>77kg</t>
+          <t>83kg</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Ferran Torres</t>
+          <t>Oriol Romeu</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>20'</t>
+          <t>9'</t>
         </is>
       </c>
       <c r="U27" t="inlineStr"/>
@@ -5320,11 +5324,11 @@
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>5/6 (83%)</t>
+          <t>6/7 (86%)</t>
         </is>
       </c>
       <c r="AB27" t="n">
@@ -5341,7 +5345,7 @@
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
         <v>0</v>
@@ -5350,80 +5354,78 @@
         <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>5 (2)</t>
+          <t>2 (1)</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
+          <t>1 (0)</t>
+        </is>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
           <t>0 (0)</t>
         </is>
       </c>
-      <c r="AL27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ27" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
       <c r="AR27" t="n">
         <v>0</v>
       </c>
       <c r="AS27" t="n">
         <v>0</v>
       </c>
-      <c r="AT27" t="inlineStr"/>
+      <c r="AT27" t="n">
+        <v>0.01</v>
+      </c>
       <c r="AU27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="inlineStr"/>
       <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr"/>
       <c r="BB27" t="inlineStr"/>
       <c r="BC27" t="inlineStr"/>
-      <c r="BD27" t="n">
-        <v>1</v>
-      </c>
+      <c r="BD27" t="inlineStr"/>
       <c r="BE27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Oriol Romeu</t>
+          <t>Iñaki Peña</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4.758.000</t>
+          <t>252.000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5431,28 +5433,12 @@
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Alavés</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>Rayo Vallecano</t>
@@ -5463,123 +5449,59 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>1,82m</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>83kg</t>
-        </is>
-      </c>
+          <t>1,85m</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Oriol Romeu</t>
-        </is>
-      </c>
-      <c r="S28" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>9'</t>
-        </is>
+          <t>Iñaki Peña</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>0</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>6/7 (86%)</t>
-        </is>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>2 (1)</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>1 (0)</t>
-        </is>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ28" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
@@ -5594,17 +5516,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Iñaki Peña</t>
+          <t>Andreas Christensen</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>252.000</t>
+          <t>7.362.000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5628,26 +5550,30 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>1,85m</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr"/>
+          <t>1,88m</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>78kg</t>
+        </is>
+      </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Iñaki Peña</t>
+          <t>Andreas Christensen</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -5695,12 +5621,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Andreas Christensen</t>
+          <t>Marcos Alonso</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7.362.000</t>
+          <t>160.000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5729,16 +5655,16 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -5747,12 +5673,12 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>78kg</t>
+          <t>84kg</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Andreas Christensen</t>
+          <t>Marcos Alonso</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -5800,97 +5726,171 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Marcos Alonso</t>
+          <t>Ianis Hagi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>160.000</t>
+          <t>5.148.000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>Alavés</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="L31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>1,88m</t>
+          <t>1,80m</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>84kg</t>
+          <t>60kg</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Marcos Alonso</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="n">
-        <v>0</v>
+          <t>Ianis Hagi</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>12'</t>
+        </is>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
+      <c r="Z31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2/4 (50%)</t>
+        </is>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>1 (0)</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>1 (1)</t>
+        </is>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>3 (3)</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>0 (0)</t>
+        </is>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>2 (2)</t>
+        </is>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
       <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
+      <c r="AU31" t="n">
+        <v>4</v>
+      </c>
       <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="inlineStr"/>
@@ -5905,17 +5905,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ianis Hagi</t>
+          <t>Kike García</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5.148.000</t>
+          <t>3.282.000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>DL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5924,7 +5924,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
@@ -5933,7 +5933,7 @@
         <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -5955,30 +5955,30 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>1,80m</t>
+          <t>1,86m</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>60kg</t>
+          <t>79kg</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Ianis Hagi</t>
+          <t>Kike García</t>
         </is>
       </c>
       <c r="S32" t="n">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>12'</t>
+          <t>11'</t>
         </is>
       </c>
       <c r="U32" t="inlineStr"/>
@@ -5995,11 +5995,11 @@
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2/4 (50%)</t>
+          <t>1/1 (100%)</t>
         </is>
       </c>
       <c r="AB32" t="n">
@@ -6007,74 +6007,80 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>1 (0)</t>
+          <t>0 (0)</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
+          <t>0 (0)</t>
+        </is>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>2 (2)</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>3 (1)</t>
+        </is>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
           <t>1 (1)</t>
         </is>
       </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>3 (3)</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ32" t="inlineStr">
-        <is>
-          <t>2 (2)</t>
-        </is>
-      </c>
       <c r="AR32" t="n">
         <v>0</v>
       </c>
       <c r="AS32" t="n">
         <v>0</v>
       </c>
-      <c r="AT32" t="inlineStr"/>
+      <c r="AT32" t="n">
+        <v>0.03</v>
+      </c>
       <c r="AU32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV32" t="inlineStr"/>
-      <c r="AW32" t="inlineStr"/>
+      <c r="AW32" t="n">
+        <v>0.04</v>
+      </c>
       <c r="AX32" t="inlineStr"/>
       <c r="AY32" t="inlineStr"/>
-      <c r="AZ32" t="inlineStr"/>
+      <c r="AZ32" t="n">
+        <v>1</v>
+      </c>
       <c r="BA32" t="inlineStr"/>
       <c r="BB32" t="inlineStr"/>
       <c r="BC32" t="inlineStr"/>
@@ -6084,17 +6090,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kike García</t>
+          <t>Nahuel Tenaglia</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3.282.000</t>
+          <t>160.000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DL</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6103,16 +6109,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -6134,30 +6140,30 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>1,86m</t>
+          <t>1,82m</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>79kg</t>
+          <t>71kg</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Kike García</t>
+          <t>Nahuel Tenaglia</t>
         </is>
       </c>
       <c r="S33" t="n">
@@ -6165,7 +6171,7 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>11'</t>
+          <t>12'</t>
         </is>
       </c>
       <c r="U33" t="inlineStr"/>
@@ -6174,92 +6180,90 @@
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2/5 (40%)</t>
+        </is>
+      </c>
+      <c r="AB33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>1 (1)</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>0 (0)</t>
+        </is>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>1 (0)</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>1 (1)</t>
+        </is>
+      </c>
+      <c r="AL33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t>0 (0)</t>
+        </is>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AU33" t="n">
         <v>5</v>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>1/1 (100%)</t>
-        </is>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>2 (2)</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>3 (1)</t>
-        </is>
-      </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ33" t="inlineStr">
-        <is>
-          <t>1 (1)</t>
-        </is>
-      </c>
-      <c r="AR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>1</v>
       </c>
       <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AX33" t="inlineStr"/>
       <c r="AY33" t="inlineStr"/>
-      <c r="AZ33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="inlineStr"/>
       <c r="BB33" t="inlineStr"/>
       <c r="BC33" t="inlineStr"/>
@@ -6269,17 +6273,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Nahuel Tenaglia</t>
+          <t>Jesús Owono</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>160.000</t>
+          <t>181.000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6287,28 +6291,12 @@
           <t>Alavés</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>Granada</t>
@@ -6319,127 +6307,65 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>1,82m</t>
+          <t>1,81m</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>71kg</t>
+          <t>67kg</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Nahuel Tenaglia</t>
-        </is>
-      </c>
-      <c r="S34" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>12'</t>
-        </is>
+          <t>Jesús Owono</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>0</v>
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>2/5 (40%)</t>
-        </is>
-      </c>
-      <c r="AB34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>1 (1)</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>1 (0)</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>1 (1)</t>
-        </is>
-      </c>
-      <c r="AL34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ34" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>5</v>
-      </c>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
       <c r="AV34" t="inlineStr"/>
-      <c r="AW34" t="n">
-        <v>0.02</v>
-      </c>
+      <c r="AW34" t="inlineStr"/>
       <c r="AX34" t="inlineStr"/>
       <c r="AY34" t="inlineStr"/>
       <c r="AZ34" t="inlineStr"/>
@@ -6452,17 +6378,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Jesús Owono</t>
+          <t>Nikola Maraš</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>181.000</t>
+          <t>160.000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6495,21 +6421,17 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1,81m</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>67kg</t>
-        </is>
-      </c>
+          <t>1,89m</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Jesús Owono</t>
+          <t>Nikola Maraš</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -6557,12 +6479,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nikola Maraš</t>
+          <t>Álex Sola</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>160.000</t>
+          <t>2.171.000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6591,26 +6513,26 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>1,89m</t>
+          <t>1,78m</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Nikola Maraš</t>
+          <t>Álex Sola</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -6658,17 +6580,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Álex Sola</t>
+          <t>Xeber Alkain</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2.171.000</t>
+          <t>183.000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6692,26 +6614,26 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>1,78m</t>
+          <t>1,74m</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Álex Sola</t>
+          <t>Xeber Alkain</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -6759,22 +6681,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Xeber Alkain</t>
+          <t>Sergi Roberto</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>183.000</t>
+          <t>160.000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Alavés</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -6785,40 +6707,43 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="L38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>1,74m</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr"/>
+          <t>1,78m</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>68kg</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Xeber Alkain</t>
+          <t xml:space="preserve">Sergi Roberto
+</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
+      <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
@@ -6855,69 +6780,85 @@
       <c r="BB38" t="inlineStr"/>
       <c r="BC38" t="inlineStr"/>
       <c r="BD38" t="inlineStr"/>
-      <c r="BE38" t="inlineStr"/>
+      <c r="BE38" t="inlineStr">
+        <is>
+          <t>Injury</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sergi Roberto</t>
+          <t xml:space="preserve"> Sávio</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>160.000</t>
+          <t>14.808.000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>DL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>9</v>
+      </c>
+      <c r="G39" t="n">
+        <v>9</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="L39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>1,78m</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>68kg</t>
-        </is>
-      </c>
+          <t>1,76m</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sergi Roberto
+          <t xml:space="preserve">Gavi
 </t>
         </is>
       </c>
@@ -6961,7 +6902,7 @@
       <c r="BD39" t="inlineStr"/>
       <c r="BE39" t="inlineStr">
         <is>
-          <t>Injury</t>
+          <t>Suspension</t>
         </is>
       </c>
     </row>
@@ -7088,62 +7029,46 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sávio</t>
+          <t xml:space="preserve"> Gavi</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>14.808.000</t>
+          <t>15.040.000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DL</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Girona</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>10</v>
-      </c>
-      <c r="F41" t="n">
-        <v>9</v>
-      </c>
-      <c r="G41" t="n">
-        <v>9</v>
-      </c>
-      <c r="H41" t="n">
-        <v>9</v>
-      </c>
-      <c r="I41" t="inlineStr">
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Rayo Vallecano</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Athletic Club</t>
-        </is>
-      </c>
       <c r="L41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -7151,7 +7076,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>1,76m</t>
+          <t>1,73m</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -7208,22 +7133,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gavi</t>
+          <t>Giuliano Simeone</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>15.040.000</t>
+          <t>160.000</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>DL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Alavés</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -7234,34 +7159,34 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="L42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>1,73m</t>
+          <t>1,78m</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gavi
+          <t xml:space="preserve">Giuliano Simeone
 </t>
         </is>
       </c>
@@ -7305,19 +7230,19 @@
       <c r="BD42" t="inlineStr"/>
       <c r="BE42" t="inlineStr">
         <is>
-          <t>Suspension</t>
+          <t>Injury</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Giuliano Simeone</t>
+          <t>Jon Karrikaburu</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>160.000</t>
+          <t>189.000</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -7346,31 +7271,32 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>1,78m</t>
+          <t>1,83m</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Giuliano Simeone
-</t>
+          <t>Jon Karrikaburu</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
@@ -7407,31 +7333,27 @@
       <c r="BB43" t="inlineStr"/>
       <c r="BC43" t="inlineStr"/>
       <c r="BD43" t="inlineStr"/>
-      <c r="BE43" t="inlineStr">
-        <is>
-          <t>Injury</t>
-        </is>
-      </c>
+      <c r="BE43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Jon Karrikaburu</t>
+          <t>Frenkie De Jong</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>189.000</t>
+          <t>15.189.000</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DL</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Alavés</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -7442,40 +7364,43 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="L44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>9,3</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>1,83m</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr"/>
+          <t>1,80m</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>70kg</t>
+        </is>
+      </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Jon Karrikaburu</t>
+          <t xml:space="preserve">Frenkie de Jong
+</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
@@ -7512,17 +7437,21 @@
       <c r="BB44" t="inlineStr"/>
       <c r="BC44" t="inlineStr"/>
       <c r="BD44" t="inlineStr"/>
-      <c r="BE44" t="inlineStr"/>
+      <c r="BE44" t="inlineStr">
+        <is>
+          <t>Injury</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Frenkie De Jong</t>
+          <t>Carlos Benavídez</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>15.189.000</t>
+          <t>160.000</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -7532,7 +7461,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Alavés</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -7543,38 +7472,38 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="L45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>9,3</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>1,80m</t>
+          <t>1,85m</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>70kg</t>
+          <t>76kg</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frenkie de Jong
+          <t xml:space="preserve">Carlos Benavídez
 </t>
         </is>
       </c>
@@ -7625,92 +7554,173 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Carlos Benavídez</t>
+          <t>Ter Stegen</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>160.000</t>
+          <t>12.863.000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>6</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>Alavés</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="L46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="O46" t="n">
+        <v>31</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>1,87m</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>85kg</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Marc-André ter Stegen</t>
+        </is>
+      </c>
+      <c r="S46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>90'</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>0 (0)</t>
+        </is>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
         <v>25</v>
       </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>1,85m</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>76kg</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Benavídez
-</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="inlineStr"/>
-      <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr"/>
-      <c r="AL46" t="inlineStr"/>
-      <c r="AM46" t="inlineStr"/>
-      <c r="AN46" t="inlineStr"/>
-      <c r="AO46" t="inlineStr"/>
-      <c r="AP46" t="inlineStr"/>
-      <c r="AQ46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>23/25 (92%)</t>
+        </is>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>0 (0)</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>6 (4)</t>
+        </is>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>0 (0)</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>0 (0)</t>
+        </is>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="inlineStr">
+        <is>
+          <t>0 (0)</t>
+        </is>
+      </c>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
       <c r="AT46" t="inlineStr"/>
@@ -7724,89 +7734,81 @@
       <c r="BB46" t="inlineStr"/>
       <c r="BC46" t="inlineStr"/>
       <c r="BD46" t="inlineStr"/>
-      <c r="BE46" t="inlineStr">
-        <is>
-          <t>Injury</t>
-        </is>
-      </c>
+      <c r="BE46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Ter Stegen</t>
+          <t>Abde Rebbach</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>12.863.000</t>
+          <t>536.000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Alavés</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>3</v>
       </c>
       <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="n">
         <v>6</v>
       </c>
-      <c r="G47" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Alavés</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="L47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>1,87m</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>85kg</t>
-        </is>
-      </c>
+          <t>1,76m</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Marc-André ter Stegen</t>
+          <t>Abderrahman Rebbach</t>
         </is>
       </c>
       <c r="S47" t="n">
@@ -7814,98 +7816,96 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>90'</t>
-        </is>
-      </c>
-      <c r="U47" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="inlineStr">
+          <t>27'</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2/2 (100%)</t>
+        </is>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>2 (1)</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
         <is>
           <t>0 (0)</t>
         </is>
       </c>
-      <c r="Y47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>23/25 (92%)</t>
-        </is>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="inlineStr">
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>3 (0)</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>1 (0)</t>
+        </is>
+      </c>
+      <c r="AL47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="inlineStr">
         <is>
           <t>0 (0)</t>
         </is>
       </c>
-      <c r="AD47" t="inlineStr">
-        <is>
-          <t>6 (4)</t>
-        </is>
-      </c>
-      <c r="AE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ47" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AK47" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AL47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ47" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AR47" t="inlineStr"/>
-      <c r="AS47" t="inlineStr"/>
-      <c r="AT47" t="inlineStr"/>
-      <c r="AU47" t="inlineStr"/>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>3</v>
+      </c>
       <c r="AV47" t="inlineStr"/>
-      <c r="AW47" t="inlineStr"/>
+      <c r="AW47" t="n">
+        <v>0.05</v>
+      </c>
       <c r="AX47" t="inlineStr"/>
       <c r="AY47" t="inlineStr"/>
       <c r="AZ47" t="inlineStr"/>
@@ -7915,185 +7915,6 @@
       <c r="BD47" t="inlineStr"/>
       <c r="BE47" t="inlineStr"/>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Abde Rebbach</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>536.000</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>MC</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Alavés</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2</v>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Granada</t>
-        </is>
-      </c>
-      <c r="L48" t="b">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="O48" t="n">
-        <v>25</v>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>1,76m</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Abderrahman Rebbach</t>
-        </is>
-      </c>
-      <c r="S48" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>27'</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>2/2 (100%)</t>
-        </is>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>2 (1)</t>
-        </is>
-      </c>
-      <c r="AD48" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AE48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ48" t="inlineStr">
-        <is>
-          <t>3 (0)</t>
-        </is>
-      </c>
-      <c r="AK48" t="inlineStr">
-        <is>
-          <t>1 (0)</t>
-        </is>
-      </c>
-      <c r="AL48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ48" t="inlineStr">
-        <is>
-          <t>0 (0)</t>
-        </is>
-      </c>
-      <c r="AR48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV48" t="inlineStr"/>
-      <c r="AW48" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AX48" t="inlineStr"/>
-      <c r="AY48" t="inlineStr"/>
-      <c r="AZ48" t="inlineStr"/>
-      <c r="BA48" t="inlineStr"/>
-      <c r="BB48" t="inlineStr"/>
-      <c r="BC48" t="inlineStr"/>
-      <c r="BD48" t="inlineStr"/>
-      <c r="BE48" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
